--- a/src/assets/files/register_missing_modelo.xlsx
+++ b/src/assets/files/register_missing_modelo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\clx-portalv2\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtanoira\eclipse-workspace\CLX-Documentacion\app-HotGoDatawarehouse\Documentacion\TablasModelo_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>userId</t>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">NOTA 2: </t>
   </si>
   <si>
-    <t>todas estas columnas SI o SI deben existir</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOTA 3: </t>
   </si>
   <si>
@@ -99,13 +96,48 @@
   </si>
   <si>
     <t>los datos deben empezar en la fila 2</t>
+  </si>
+  <si>
+    <t>todas estas columnas SI o SI deben existir y NO cambiar el nombre de los títulos (case sensitive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTA 5: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">las columnas en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rojo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> son opcionales, el resto es obligatorio (no pueden estar vacías)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +170,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,12 +223,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +534,7 @@
     <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.5546875" style="2"/>
-    <col min="9" max="9" width="21.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -488,13 +547,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -503,7 +562,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -532,40 +591,48 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="10">
         <v>42370</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
